--- a/src/main/resources/Wyniki.xlsx
+++ b/src/main/resources/Wyniki.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Kursy\Akademia Spring\as-week9\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CEB0E9-DF4E-4ADC-95D2-6FA25F39963D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88D2153-2669-4564-BA78-FD1A307F8760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -38,22 +38,22 @@
     <t>Operation</t>
   </si>
   <si>
-    <t>Read</t>
-  </si>
-  <si>
-    <t>Write</t>
-  </si>
-  <si>
     <t>Database</t>
-  </si>
-  <si>
-    <t>MySql</t>
   </si>
   <si>
     <t>MongoDB</t>
   </si>
   <si>
     <t>Average:</t>
+  </si>
+  <si>
+    <t>Write (ms)</t>
+  </si>
+  <si>
+    <t>Read (ms)</t>
+  </si>
+  <si>
+    <t>Hibernate</t>
   </si>
 </sst>
 </file>
@@ -180,9 +180,6 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -200,6 +197,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -484,163 +484,237 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>116</v>
+      </c>
+      <c r="C3" s="2">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2">
+        <v>670</v>
+      </c>
+      <c r="E3" s="2">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>110</v>
+      </c>
+      <c r="C4" s="2">
+        <v>48</v>
+      </c>
+      <c r="D4" s="2">
+        <v>614</v>
+      </c>
+      <c r="E4" s="2">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B5" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2">
+        <v>47</v>
+      </c>
+      <c r="D5" s="2">
+        <v>583</v>
+      </c>
+      <c r="E5" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B6" s="2">
+        <v>86</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44</v>
+      </c>
+      <c r="D6" s="2">
+        <v>621</v>
+      </c>
+      <c r="E6" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="B7" s="2">
+        <v>103</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43</v>
+      </c>
+      <c r="D7" s="2">
+        <v>747</v>
+      </c>
+      <c r="E7" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2">
+        <v>647</v>
+      </c>
+      <c r="E8" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2">
+        <v>47</v>
+      </c>
+      <c r="D9" s="2">
+        <v>583</v>
+      </c>
+      <c r="E9" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2">
+        <v>99</v>
+      </c>
+      <c r="C10" s="2">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2">
+        <v>582</v>
+      </c>
+      <c r="E10" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2">
+        <v>651</v>
+      </c>
+      <c r="E11" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>86</v>
+      </c>
+      <c r="C12" s="2">
+        <v>45</v>
+      </c>
+      <c r="D12" s="2">
+        <v>629</v>
+      </c>
+      <c r="E12" s="2">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <f>AVERAGE(B3:B12)</f>
-        <v>1</v>
-      </c>
-      <c r="C13" s="5">
+        <v>95</v>
+      </c>
+      <c r="C13" s="4">
         <f>AVERAGE(C3:C12)</f>
-        <v>1</v>
-      </c>
-      <c r="D13" s="5">
+        <v>45.9</v>
+      </c>
+      <c r="D13" s="4">
         <f t="shared" ref="D13:E13" si="0">AVERAGE(D3:D12)</f>
-        <v>1</v>
-      </c>
-      <c r="E13" s="5">
+        <v>632.70000000000005</v>
+      </c>
+      <c r="E13" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>681.1</v>
       </c>
     </row>
   </sheetData>
